--- a/docs/all_messy_hucs.xlsx
+++ b/docs/all_messy_hucs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rory/Desktop/Grad School/Capstone - ESA Listed Fish Species/ESA_Permits_Capstone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C423C7-FD91-D145-B467-F8BD0EDD7C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA16B2-2D1A-124B-8564-2068796980EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5600" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="-38400" yWindow="-5100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="389">
   <si>
     <t>FileNumber</t>
   </si>
@@ -1196,11 +1196,17 @@
   <si>
     <t>Row Labels</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of FileNumber</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1678,7 +1684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1688,6 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1747,7 +1754,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rory Spurr" refreshedDate="44768.56187824074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="304">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rory Spurr" refreshedDate="44768.56187824074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="304" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:AC305" sheet="all_messy_hucs"/>
   </cacheSource>
@@ -1795,7 +1802,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="WaterbodyName" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="7">
+        <s v="N/A"/>
+        <s v="South Puget Sound"/>
+        <s v="North Puget Sound"/>
+        <s v="Admiralty Inlet"/>
+        <s v="Hood Canal"/>
+        <s v="Whidbey Basin"/>
+        <s v="Strait of Juan de Fuca"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="BasinName" numFmtId="0">
       <sharedItems count="2">
@@ -1957,14 +1972,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="2077076265"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="304">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="304">
   <r>
     <s v="1124 - 6R"/>
     <s v="NMFS 10a1A Salmon"/>
@@ -1979,7 +1994,7 @@
     <s v="Fredericks"/>
     <s v="Idaho Department of Fish and Game"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2009,7 +2024,7 @@
     <s v="Fredericks"/>
     <s v="Idaho Department of Fish and Game"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2039,7 +2054,7 @@
     <s v="Fredericks"/>
     <s v="Idaho Department of Fish and Game"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2069,7 +2084,7 @@
     <s v="Fredericks"/>
     <s v="Idaho Department of Fish and Game"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2099,7 +2114,7 @@
     <s v="Fredericks"/>
     <s v="Idaho Department of Fish and Game"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2129,7 +2144,7 @@
     <s v="Tardy"/>
     <s v="Shoshone-Bannock Tribes Fisheries Department"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -2159,7 +2174,7 @@
     <s v="Tardy"/>
     <s v="Shoshone-Bannock Tribes Fisheries Department"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -2189,7 +2204,7 @@
     <s v="Lothrop"/>
     <s v="Columbia River Inter-Tribal Fish Commission"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
@@ -2219,7 +2234,7 @@
     <s v="Lothrop"/>
     <s v="Columbia River Inter-Tribal Fish Commission"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -2249,7 +2264,7 @@
     <s v="Lothrop"/>
     <s v="Columbia River Inter-Tribal Fish Commission"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -2279,7 +2294,7 @@
     <s v="Lothrop"/>
     <s v="Columbia River Inter-Tribal Fish Commission"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
@@ -2309,7 +2324,7 @@
     <s v="Lothrop"/>
     <s v="Columbia River Inter-Tribal Fish Commission"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
@@ -2339,7 +2354,7 @@
     <s v="Lothrop"/>
     <s v="Columbia River Inter-Tribal Fish Commission"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
@@ -2369,7 +2384,7 @@
     <s v="Sanderson"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="5"/>
@@ -2399,7 +2414,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2429,7 +2444,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2459,7 +2474,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2489,7 +2504,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2519,7 +2534,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2549,7 +2564,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2579,7 +2594,7 @@
     <s v="NA"/>
     <s v="Lodi Fish and Wildlife Office"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -2609,7 +2624,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="5"/>
     <x v="7"/>
@@ -2639,7 +2654,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2669,7 +2684,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2699,7 +2714,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2729,7 +2744,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2759,7 +2774,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2789,7 +2804,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2819,7 +2834,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2849,7 +2864,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2879,7 +2894,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2909,7 +2924,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2939,7 +2954,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2969,7 +2984,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -2999,7 +3014,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -3029,7 +3044,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -3059,7 +3074,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -3089,7 +3104,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="8"/>
@@ -3119,7 +3134,7 @@
     <s v="NA"/>
     <s v="Washington Department of Natural Resources, Pacific Cascade Region"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="7"/>
     <x v="9"/>
@@ -3149,7 +3164,7 @@
     <s v="Barsh"/>
     <s v="KWIAHT (Center for the Historical Ecology of the Salish Sea)"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="8"/>
     <x v="10"/>
@@ -3179,7 +3194,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="9"/>
     <x v="11"/>
@@ -3209,7 +3224,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="9"/>
     <x v="11"/>
@@ -3239,7 +3254,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="9"/>
     <x v="11"/>
@@ -3269,7 +3284,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="10"/>
     <x v="11"/>
@@ -3299,7 +3314,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="11"/>
     <x v="11"/>
@@ -3329,7 +3344,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="11"/>
     <x v="11"/>
@@ -3359,7 +3374,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="12"/>
     <x v="11"/>
@@ -3389,7 +3404,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="12"/>
     <x v="11"/>
@@ -3419,7 +3434,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="13"/>
     <x v="11"/>
@@ -3449,7 +3464,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="13"/>
     <x v="11"/>
@@ -3479,7 +3494,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="13"/>
     <x v="11"/>
@@ -3509,7 +3524,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="14"/>
     <x v="11"/>
@@ -3539,7 +3554,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="14"/>
     <x v="11"/>
@@ -3569,7 +3584,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="15"/>
     <x v="11"/>
@@ -3599,7 +3614,7 @@
     <s v="Adams"/>
     <s v="Amnis Opes Institute, LLC"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="15"/>
     <x v="11"/>
@@ -3629,7 +3644,7 @@
     <s v="NA"/>
     <s v="California Department of Fish and Wildlife"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="16"/>
     <x v="12"/>
@@ -3659,7 +3674,7 @@
     <s v="NA"/>
     <s v="California Department of Fish and Wildlife"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="16"/>
     <x v="12"/>
@@ -3689,7 +3704,7 @@
     <s v="NA"/>
     <s v="California Department of Fish and Wildlife"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="16"/>
     <x v="12"/>
@@ -3719,7 +3734,7 @@
     <s v="NA"/>
     <s v="California Department of Fish and Wildlife"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="16"/>
     <x v="12"/>
@@ -3749,7 +3764,7 @@
     <s v="NA"/>
     <s v="California Department of Fish and Wildlife"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="16"/>
     <x v="12"/>
@@ -3779,7 +3794,7 @@
     <s v="Peterson"/>
     <s v="West Fork Environmental, Inc."/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="17"/>
     <x v="13"/>
@@ -3809,7 +3824,7 @@
     <s v="Peterson"/>
     <s v="West Fork Environmental, Inc."/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="18"/>
     <x v="14"/>
@@ -3839,7 +3854,7 @@
     <s v="Peterson"/>
     <s v="West Fork Environmental, Inc."/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="18"/>
     <x v="14"/>
@@ -3869,7 +3884,7 @@
     <s v="Peterson"/>
     <s v="West Fork Environmental, Inc."/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="19"/>
     <x v="15"/>
@@ -3899,7 +3914,7 @@
     <s v="Peterson"/>
     <s v="West Fork Environmental, Inc."/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="20"/>
     <x v="16"/>
@@ -3929,7 +3944,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -3959,7 +3974,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -3989,7 +4004,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -4019,7 +4034,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -4049,7 +4064,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -4079,7 +4094,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -4109,7 +4124,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -4139,7 +4154,7 @@
     <s v="Beauchamp"/>
     <s v="U.S. Geological Survey"/>
     <x v="1"/>
-    <s v="Admiralty Inlet"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="21"/>
     <x v="17"/>
@@ -4169,7 +4184,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4199,7 +4214,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4229,7 +4244,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4259,7 +4274,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4289,7 +4304,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4319,7 +4334,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4349,7 +4364,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4379,7 +4394,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4409,7 +4424,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4439,7 +4454,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4469,7 +4484,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4499,7 +4514,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4529,7 +4544,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4559,7 +4574,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4589,7 +4604,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4619,7 +4634,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4649,7 +4664,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4679,7 +4694,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4709,7 +4724,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4739,7 +4754,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4769,7 +4784,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4799,7 +4814,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4829,7 +4844,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4859,7 +4874,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4889,7 +4904,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4919,7 +4934,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4949,7 +4964,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -4979,7 +4994,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5009,7 +5024,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5039,7 +5054,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5069,7 +5084,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5099,7 +5114,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5129,7 +5144,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5159,7 +5174,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5189,7 +5204,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5219,7 +5234,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5249,7 +5264,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5279,7 +5294,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5309,7 +5324,7 @@
     <s v="NA"/>
     <s v="Oregon Department of Environmental Quality"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="22"/>
     <x v="18"/>
@@ -5339,7 +5354,7 @@
     <s v="Fawcett"/>
     <s v="Fawcett Ecological Consulting"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="19"/>
@@ -5369,7 +5384,7 @@
     <s v="Fawcett"/>
     <s v="Fawcett Ecological Consulting"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="23"/>
     <x v="20"/>
@@ -5399,7 +5414,7 @@
     <s v="Fawcett"/>
     <s v="Fawcett Ecological Consulting"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="23"/>
     <x v="20"/>
@@ -5429,7 +5444,7 @@
     <s v="Fawcett"/>
     <s v="Fawcett Ecological Consulting"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="23"/>
     <x v="20"/>
@@ -5459,7 +5474,7 @@
     <s v="Fawcett"/>
     <s v="Fawcett Ecological Consulting"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="23"/>
     <x v="20"/>
@@ -5489,7 +5504,7 @@
     <s v="Podlech"/>
     <s v="independent researcher"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="24"/>
     <x v="21"/>
@@ -5519,7 +5534,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="25"/>
     <x v="22"/>
@@ -5549,7 +5564,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="25"/>
     <x v="22"/>
@@ -5579,7 +5594,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="25"/>
     <x v="22"/>
@@ -5609,7 +5624,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="25"/>
     <x v="22"/>
@@ -5639,7 +5654,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5669,7 +5684,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5699,7 +5714,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5729,7 +5744,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5759,7 +5774,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5789,7 +5804,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5819,7 +5834,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="26"/>
     <x v="23"/>
@@ -5849,7 +5864,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
     <x v="24"/>
@@ -5879,7 +5894,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
     <x v="24"/>
@@ -5909,7 +5924,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
     <x v="24"/>
@@ -5939,7 +5954,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
     <x v="24"/>
@@ -5969,7 +5984,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
     <x v="24"/>
@@ -5999,7 +6014,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="27"/>
     <x v="24"/>
@@ -6029,7 +6044,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6059,7 +6074,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6089,7 +6104,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6119,7 +6134,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6149,7 +6164,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6179,7 +6194,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6209,7 +6224,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6239,7 +6254,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6269,7 +6284,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6299,7 +6314,7 @@
     <s v="Durand"/>
     <s v="University of California at Davis"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="28"/>
     <x v="25"/>
@@ -6329,7 +6344,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="29"/>
     <x v="26"/>
@@ -6359,7 +6374,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="29"/>
     <x v="26"/>
@@ -6389,7 +6404,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="29"/>
     <x v="26"/>
@@ -6419,7 +6434,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="29"/>
     <x v="26"/>
@@ -6449,7 +6464,7 @@
     <s v="NA"/>
     <s v="Green Diamond Resource Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="30"/>
     <x v="27"/>
@@ -6479,7 +6494,7 @@
     <s v="NA"/>
     <s v="Green Diamond Resource Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="30"/>
     <x v="27"/>
@@ -6509,7 +6524,7 @@
     <s v="NA"/>
     <s v="Green Diamond Resource Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="30"/>
     <x v="27"/>
@@ -6539,7 +6554,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
     <x v="28"/>
@@ -6569,7 +6584,7 @@
     <s v="NA"/>
     <s v="Bureau of Reclamation"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="32"/>
     <x v="29"/>
@@ -6599,7 +6614,7 @@
     <s v="Chandler"/>
     <s v="Idaho Power Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="33"/>
     <x v="30"/>
@@ -6629,7 +6644,7 @@
     <s v="Chandler"/>
     <s v="Idaho Power Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="33"/>
     <x v="30"/>
@@ -6659,7 +6674,7 @@
     <s v="Chandler"/>
     <s v="Idaho Power Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="33"/>
     <x v="30"/>
@@ -6689,7 +6704,7 @@
     <s v="Chandler"/>
     <s v="Idaho Power Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="33"/>
     <x v="30"/>
@@ -6719,7 +6734,7 @@
     <s v="Chandler"/>
     <s v="Idaho Power Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="33"/>
     <x v="30"/>
@@ -6749,7 +6764,7 @@
     <s v="Chandler"/>
     <s v="Idaho Power Company"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="33"/>
     <x v="30"/>
@@ -6779,7 +6794,7 @@
     <s v="NA"/>
     <s v="Northwest Straits Foundation"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="34"/>
     <x v="31"/>
@@ -6809,7 +6824,7 @@
     <s v="NA"/>
     <s v="Northwest Straits Foundation"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="35"/>
     <x v="32"/>
@@ -6839,7 +6854,7 @@
     <s v="NA"/>
     <s v="Northwest Straits Foundation"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="36"/>
     <x v="33"/>
@@ -6869,7 +6884,7 @@
     <s v="NA"/>
     <s v="Northwest Straits Foundation"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="37"/>
     <x v="34"/>
@@ -6899,7 +6914,7 @@
     <s v="Schoby"/>
     <s v="Idaho Department of Fish and Game"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="38"/>
     <x v="35"/>
@@ -6929,7 +6944,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -6959,7 +6974,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -6989,7 +7004,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7019,7 +7034,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7049,7 +7064,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7079,7 +7094,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7109,7 +7124,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7139,7 +7154,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7169,7 +7184,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7199,7 +7214,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7229,7 +7244,7 @@
     <s v="NA"/>
     <s v="NMFS Southwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="36"/>
@@ -7259,7 +7274,7 @@
     <s v="NA"/>
     <s v="Washington Department of Natural Resources"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="39"/>
     <x v="37"/>
@@ -7289,7 +7304,7 @@
     <s v="Ruesink"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="40"/>
     <x v="38"/>
@@ -7319,7 +7334,7 @@
     <s v="Ruesink"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="41"/>
     <x v="39"/>
@@ -7349,7 +7364,7 @@
     <s v="Ruesink"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Hood Canal"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="41"/>
     <x v="39"/>
@@ -7379,7 +7394,7 @@
     <s v="Ruesink"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="40"/>
@@ -7409,7 +7424,7 @@
     <s v="Ruesink"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="40"/>
@@ -7439,7 +7454,7 @@
     <s v="Ruesink"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="42"/>
     <x v="41"/>
@@ -7469,7 +7484,7 @@
     <s v="NA"/>
     <s v="Pacific Shellfish Institute"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="43"/>
     <x v="42"/>
@@ -7499,7 +7514,7 @@
     <s v="NA"/>
     <s v="Pacific Shellfish Institute"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="43"/>
     <x v="42"/>
@@ -7529,7 +7544,7 @@
     <s v="NA"/>
     <s v="Pacific Shellfish Institute"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="43"/>
     <x v="42"/>
@@ -7559,7 +7574,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="44"/>
     <x v="43"/>
@@ -7589,7 +7604,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="44"/>
     <x v="43"/>
@@ -7619,7 +7634,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="44"/>
     <x v="43"/>
@@ -7649,7 +7664,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="45"/>
     <x v="44"/>
@@ -7679,7 +7694,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="45"/>
     <x v="44"/>
@@ -7709,7 +7724,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="45"/>
     <x v="44"/>
@@ -7739,7 +7754,7 @@
     <s v="Armstrong"/>
     <s v="Oregon State University"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="45"/>
     <x v="44"/>
@@ -7769,7 +7784,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="45"/>
@@ -7799,7 +7814,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="46"/>
@@ -7829,7 +7844,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="46"/>
@@ -7859,7 +7874,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="46"/>
@@ -7889,7 +7904,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="46"/>
@@ -7919,7 +7934,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="46"/>
@@ -7949,7 +7964,7 @@
     <s v="NA"/>
     <s v="King County Department of Natural Resources and Parks"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="46"/>
@@ -7979,7 +7994,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8009,7 +8024,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8039,7 +8054,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8069,7 +8084,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8099,7 +8114,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8129,7 +8144,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8159,7 +8174,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8189,7 +8204,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8219,7 +8234,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8249,7 +8264,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8279,7 +8294,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8309,7 +8324,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8339,7 +8354,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8369,7 +8384,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8399,7 +8414,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8429,7 +8444,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8459,7 +8474,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8489,7 +8504,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8519,7 +8534,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8549,7 +8564,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8579,7 +8594,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8609,7 +8624,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8639,7 +8654,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8669,7 +8684,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8699,7 +8714,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8729,7 +8744,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8759,7 +8774,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8789,7 +8804,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="46"/>
     <x v="47"/>
@@ -8819,7 +8834,7 @@
     <s v="Johnson"/>
     <s v="U.S. Forest Service"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="47"/>
     <x v="48"/>
@@ -8849,7 +8864,7 @@
     <s v="Johnson"/>
     <s v="U.S. Forest Service"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="47"/>
     <x v="48"/>
@@ -8879,7 +8894,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
     <x v="49"/>
@@ -8909,7 +8924,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
     <x v="49"/>
@@ -8939,7 +8954,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
     <x v="49"/>
@@ -8969,7 +8984,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
     <x v="49"/>
@@ -8999,7 +9014,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="31"/>
     <x v="49"/>
@@ -9029,7 +9044,7 @@
     <s v="Khandwala"/>
     <s v="Stillwater Sciences"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="21"/>
     <x v="50"/>
@@ -9059,7 +9074,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="51"/>
@@ -9089,7 +9104,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="51"/>
@@ -9119,7 +9134,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="52"/>
@@ -9149,7 +9164,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Strait of Juan de Fuca"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="21"/>
     <x v="53"/>
@@ -9179,7 +9194,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Strait of Juan de Fuca"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="21"/>
     <x v="53"/>
@@ -9209,7 +9224,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="21"/>
     <x v="54"/>
@@ -9239,7 +9254,7 @@
     <s v="Braun"/>
     <s v="University of Washington"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="21"/>
     <x v="54"/>
@@ -9269,7 +9284,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="55"/>
@@ -9299,7 +9314,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="55"/>
@@ -9329,7 +9344,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="55"/>
@@ -9359,7 +9374,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="North Puget Sound"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="21"/>
     <x v="55"/>
@@ -9389,7 +9404,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="56"/>
@@ -9419,7 +9434,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="56"/>
@@ -9449,7 +9464,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="56"/>
@@ -9479,7 +9494,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="South Puget Sound"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="21"/>
     <x v="56"/>
@@ -9509,7 +9524,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="21"/>
     <x v="57"/>
@@ -9539,7 +9554,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="21"/>
     <x v="57"/>
@@ -9569,7 +9584,7 @@
     <s v="NA"/>
     <s v="NMFS Northwest Fisheries Science Center"/>
     <x v="0"/>
-    <s v="Whidbey Basin"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="21"/>
     <x v="57"/>
@@ -9599,7 +9614,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9629,7 +9644,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9659,7 +9674,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9689,7 +9704,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9719,7 +9734,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9749,7 +9764,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9779,7 +9794,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9809,7 +9824,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9839,7 +9854,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9869,7 +9884,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9899,7 +9914,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9929,7 +9944,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9959,7 +9974,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -9989,7 +10004,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10019,7 +10034,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10049,7 +10064,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10079,7 +10094,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10109,7 +10124,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10139,7 +10154,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10169,7 +10184,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10199,7 +10214,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10229,7 +10244,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10259,7 +10274,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10289,7 +10304,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10319,7 +10334,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10349,7 +10364,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10379,7 +10394,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10409,7 +10424,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10439,7 +10454,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10469,7 +10484,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10499,7 +10514,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10529,7 +10544,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10559,7 +10574,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10589,7 +10604,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10619,7 +10634,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10649,7 +10664,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10679,7 +10694,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10709,7 +10724,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="48"/>
     <x v="58"/>
@@ -10739,7 +10754,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10769,7 +10784,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10799,7 +10814,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10829,7 +10844,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10859,7 +10874,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10889,7 +10904,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10919,7 +10934,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10949,7 +10964,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -10979,7 +10994,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -11009,7 +11024,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -11039,7 +11054,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -11069,7 +11084,7 @@
     <s v="NA"/>
     <s v="Moss Landing Marine Labs, MPSL"/>
     <x v="0"/>
-    <s v="N/A"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="49"/>
     <x v="59"/>
@@ -11089,10 +11104,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:A54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:I55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11111,7 +11126,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
@@ -11205,7 +11231,7 @@
         <item x="56"/>
         <item x="55"/>
         <item x="36"/>
-        <item x="27"/>
+        <item sd="0" x="27"/>
         <item x="16"/>
         <item x="50"/>
         <item x="18"/>
@@ -11410,9 +11436,38 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
+  <dataFields count="1">
+    <dataField name="Count of FileNumber" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <chartFormats count="50">
     <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -12173,31 +12228,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="103.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="93.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="48" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -12233,264 +12288,930 @@
     <col min="51" max="51" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>77</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>324</v>
       </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>345</v>
       </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>319</v>
       </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>329</v>
       </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>7</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
+        <v>39</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5">
+        <v>39</v>
+      </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>337</v>
       </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>385</v>
+      </c>
+      <c r="B55" s="5">
+        <v>8</v>
+      </c>
+      <c r="C55" s="5">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5">
+        <v>233</v>
+      </c>
+      <c r="E55" s="5">
+        <v>21</v>
+      </c>
+      <c r="F55" s="5">
+        <v>26</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2</v>
+      </c>
+      <c r="H55" s="5">
+        <v>7</v>
+      </c>
+      <c r="I55" s="5">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12499,7 +13220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC305"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23005,7 +23726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -24607,7 +25328,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -24696,7 +25417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -24785,7 +25506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -24874,7 +25595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -24963,7 +25684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -25052,7 +25773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -25141,7 +25862,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -25230,7 +25951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -25319,7 +26040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -25408,7 +26129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -25497,7 +26218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="238" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -25586,7 +26307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="238" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -25675,7 +26396,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="238" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -25764,7 +26485,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="238" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -28879,7 +29600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="289" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -28968,7 +29689,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="289" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -29057,7 +29778,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="289" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
